--- a/plantillasSap/15122022/1329-15122022.xlsx
+++ b/plantillasSap/15122022/1329-15122022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -722,10 +722,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="n">
-        <v>5111040.58</v>
+        <v>5315356.38</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>5315356.38</v>
+        <v>5555871.88</v>
       </c>
       <c r="C9" s="18" t="n"/>
       <c r="D9" s="20" t="n"/>
@@ -839,12 +839,12 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>800-295156</t>
+          <t>13972-73204</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6315.8</v>
+        <v>7195.5</v>
       </c>
       <c r="F17" s="14" t="n"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14600-1543116</t>
+          <t>6946-701693</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>198000</v>
+        <v>233320</v>
       </c>
       <c r="F18" s="14" t="n"/>
     </row>
